--- a/biology/Botanique/Phygelius_capensis/Phygelius_capensis.xlsx
+++ b/biology/Botanique/Phygelius_capensis/Phygelius_capensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Fuchsia du Cap, ou Phygelius capensis, est une espèce de plantes appartenant à la famille des Scrofulariacées. Cette espèce ressemble beaucoup par son feuillage et son abondante floraison en clochettes aux Fuchsias, avec lesquels il ne faut pas la confondre et qui font, eux, partie dans la sous-classe des Rosidae. Originaire d'Afrique du Sud, cette plante fleurie buissonnante est cultivée un peu partout comme plante ornementale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fuchsia du Cap, ou Phygelius capensis, est une espèce de plantes appartenant à la famille des Scrofulariacées. Cette espèce ressemble beaucoup par son feuillage et son abondante floraison en clochettes aux Fuchsias, avec lesquels il ne faut pas la confondre et qui font, eux, partie dans la sous-classe des Rosidae. Originaire d'Afrique du Sud, cette plante fleurie buissonnante est cultivée un peu partout comme plante ornementale.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante forme un buisson qui peut atteindre 2 mètres de haut. Le feuillage est caduc dans les régions où l'hiver est froid mais elle résiste à des températures allant jusqu'à -15° à condition d'être à l'abri de vents froids. La floraison abondante est constituée de fleurs rouge-rosé, en forme de trompettes retombantes, groupées en épis à l’extrémité des branches nues qui surmontent le feuillage vert vif. En Europe la plante fleurit de mai à novembre[1].
-Bien que la nature du sol lui soit indifférente, cette plante prospère mieux en terre légère et humifère bien drainée, de préférence au soleil ou à mi-ombre. Elle se multiplie facilement par bouturage ou bien par semis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante forme un buisson qui peut atteindre 2 mètres de haut. Le feuillage est caduc dans les régions où l'hiver est froid mais elle résiste à des températures allant jusqu'à -15° à condition d'être à l'abri de vents froids. La floraison abondante est constituée de fleurs rouge-rosé, en forme de trompettes retombantes, groupées en épis à l’extrémité des branches nues qui surmontent le feuillage vert vif. En Europe la plante fleurit de mai à novembre.
+Bien que la nature du sol lui soit indifférente, cette plante prospère mieux en terre légère et humifère bien drainée, de préférence au soleil ou à mi-ombre. Elle se multiplie facilement par bouturage ou bien par semis.
 Il existe une espèce très proche, à floraison jaune pâle, Phygelius aequalis.
 </t>
         </is>
